--- a/public/samples/learnerAnswers.xlsx
+++ b/public/samples/learnerAnswers.xlsx
@@ -5,16 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BakkahLMS\public\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EF8B3D-D04A-427F-874B-434B99E4947D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F735E1F2-13F9-4832-8F99-6A1FFEAAD2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="2" r:id="rId1"/>
-    <sheet name="Timeline" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>First name</t>
   </si>
@@ -140,30 +139,6 @@
   </si>
   <si>
     <t>anasser@bakkah.net.sa</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Ashwaq Ahmed S Alswayah</t>
-  </si>
-  <si>
-    <t>Ashwaq Ahmed S Alswayah passed the test Assess Your Knowledge-Post-Learning (score: 80%)</t>
-  </si>
-  <si>
-    <t>Marwa Kassem</t>
-  </si>
-  <si>
-    <t>Marwa Kassem passed the test Assess Your Knowledge-Post-Learning (score: 100%)</t>
-  </si>
-  <si>
-    <t>Marwa Kassem did not pass the test Assess Your Knowledge-Post-Learning (score: 20%)</t>
   </si>
 </sst>
 </file>
@@ -877,80 +852,4 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="6">
-        <v>44510.961875000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="6">
-        <v>44412.469085648001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="6">
-        <v>44412.466747685001</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>